--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/word_level_predictions_17.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>8</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>8</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>8</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>9</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>10</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7314,312 +7314,312 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>6</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>8</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8718,780 +8718,780 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>reset</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K164" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K166" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K167" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>cancelling</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10746,364 +10746,364 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>12</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>10</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>12</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>11</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>12</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>12</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>12</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>13</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>12</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>14</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>12</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>15</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>12</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>16</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>14</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>6</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>14</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>7</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>14</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>8</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>14</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>9</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>14</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>10</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>14</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>11</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="F284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16154,416 +16154,416 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" t="n">
         <v>19</v>
       </c>
-      <c r="B303" s="2" t="inlineStr">
+      <c r="B303" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C303" s="2" t="inlineStr">
+      <c r="C303" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D303" s="2" t="n">
+      <c r="D303" t="n">
         <v>8</v>
       </c>
-      <c r="E303" s="2" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F303" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G303" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K303" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L303" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" t="b">
+        <v>1</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K303" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" t="n">
         <v>19</v>
       </c>
-      <c r="B304" s="2" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C304" s="2" t="inlineStr">
+      <c r="C304" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D304" s="2" t="n">
+      <c r="D304" t="n">
         <v>9</v>
       </c>
-      <c r="E304" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G304" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K304" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L304" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" t="b">
+        <v>1</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K304" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" t="n">
         <v>19</v>
       </c>
-      <c r="B305" s="2" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C305" s="2" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D305" s="2" t="n">
+      <c r="D305" t="n">
         <v>10</v>
       </c>
-      <c r="E305" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G305" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K305" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K305" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" t="n">
         <v>19</v>
       </c>
-      <c r="B306" s="2" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C306" s="2" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D306" s="2" t="n">
+      <c r="D306" t="n">
         <v>11</v>
       </c>
-      <c r="E306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L306" s="2" t="inlineStr">
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K306" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" t="n">
         <v>19</v>
       </c>
-      <c r="B307" s="2" t="inlineStr">
+      <c r="B307" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C307" s="2" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D307" s="2" t="n">
+      <c r="D307" t="n">
         <v>12</v>
       </c>
-      <c r="E307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K307" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L307" s="2" t="inlineStr">
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K307" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" t="n">
         <v>19</v>
       </c>
-      <c r="B308" s="2" t="inlineStr">
+      <c r="B308" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C308" s="2" t="inlineStr">
+      <c r="C308" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D308" s="2" t="n">
+      <c r="D308" t="n">
         <v>13</v>
       </c>
-      <c r="E308" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G308" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K308" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L308" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" t="b">
+        <v>1</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K308" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" t="n">
         <v>19</v>
       </c>
-      <c r="B309" s="2" t="inlineStr">
+      <c r="B309" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C309" s="2" t="inlineStr">
+      <c r="C309" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D309" s="2" t="n">
+      <c r="D309" t="n">
         <v>14</v>
       </c>
-      <c r="E309" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K309" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L309" s="2" t="inlineStr">
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" t="b">
+        <v>1</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K309" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" t="n">
         <v>19</v>
       </c>
-      <c r="B310" s="2" t="inlineStr">
+      <c r="B310" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C310" s="2" t="inlineStr">
+      <c r="C310" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" s="2" t="n">
+      <c r="D310" t="n">
         <v>15</v>
       </c>
-      <c r="E310" s="2" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" s="2" t="inlineStr">
+      <c r="F310" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G310" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K310" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L310" s="2" t="inlineStr">
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" t="b">
+        <v>1</v>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K310" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/17/word_level_predictions_17.xlsx
@@ -502,262 +502,262 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7314,312 +7314,312 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8718,780 +8718,780 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>10</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>11</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>10</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>12</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>10</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>reset</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>13</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>10</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>14</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" t="n">
         <v>10</v>
       </c>
-      <c r="B164" s="2" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C164" s="2" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" t="n">
         <v>15</v>
       </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2" t="inlineStr">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" t="n">
         <v>10</v>
       </c>
-      <c r="B165" s="2" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" t="n">
         <v>16</v>
       </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L165" s="2" t="inlineStr">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" t="n">
         <v>10</v>
       </c>
-      <c r="B166" s="2" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" t="n">
         <v>17</v>
       </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="inlineStr">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" t="n">
         <v>10</v>
       </c>
-      <c r="B167" s="2" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C167" s="2" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" t="n">
         <v>18</v>
       </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2" t="inlineStr">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>10</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>19</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>10</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>20</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>10</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>21</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>10</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>cancelling</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>22</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>10</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>23</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>10</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>24</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>10</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>25</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10746,364 +10746,364 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12150,312 +12150,312 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E226" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
+      <c r="A229" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F229" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>15</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>7</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>15</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>15</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" t="n">
         <v>9</v>
       </c>
-      <c r="E242" s="2" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" s="2" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>17</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>17</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>17</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>17</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>17</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" s="2" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -16154,416 +16154,416 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
+      <c r="A303" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="B303" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D303" t="n">
+      <c r="D303" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="E303" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G303" t="b">
-        <v>1</v>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I303" t="b">
-        <v>1</v>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K303" t="b">
-        <v>1</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F303" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J303" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K303" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
+      <c r="A304" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B304" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D304" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I304" t="b">
-        <v>1</v>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K304" t="b">
-        <v>1</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E304" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F304" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J304" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K304" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
+      <c r="A305" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B305" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D305" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I305" t="b">
-        <v>1</v>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K305" t="b">
-        <v>1</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E305" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F305" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K305" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
+      <c r="A306" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B306" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D306" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I306" t="b">
-        <v>1</v>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K306" t="b">
-        <v>1</v>
-      </c>
-      <c r="L306" t="inlineStr">
+      <c r="E306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F306" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
+      <c r="A307" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="B307" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D307" t="n">
+      <c r="D307" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I307" t="b">
-        <v>1</v>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K307" t="b">
-        <v>1</v>
-      </c>
-      <c r="L307" t="inlineStr">
+      <c r="E307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F307" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
+      <c r="A308" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="B308" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D308" t="n">
+      <c r="D308" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G308" t="b">
-        <v>1</v>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I308" t="b">
-        <v>1</v>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K308" t="b">
-        <v>1</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E308" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F308" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
+      <c r="A309" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="B309" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D309" t="n">
+      <c r="D309" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G309" t="b">
-        <v>1</v>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I309" t="b">
-        <v>1</v>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K309" t="b">
-        <v>1</v>
-      </c>
-      <c r="L309" t="inlineStr">
+      <c r="E309" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F309" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
+      <c r="A310" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B310" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C310" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D310" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E310" t="inlineStr">
+      <c r="E310" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
+      <c r="F310" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G310" t="b">
-        <v>1</v>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I310" t="b">
-        <v>1</v>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K310" t="b">
-        <v>1</v>
-      </c>
-      <c r="L310" t="inlineStr">
+      <c r="G310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L310" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
